--- a/target/classes/ExcelRead.xlsx
+++ b/target/classes/ExcelRead.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{136A863B-EC94-40F3-9750-607512FA321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9075"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -36,74 +29,17 @@
     <t>pw</t>
   </si>
   <si>
-    <t>madheshmaddy080@gmail.com</t>
+    <t>ProjectTestUser1</t>
   </si>
   <si>
-    <t>madhesh@2001</t>
-  </si>
-  <si>
-    <t>fro</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>Bangalore, Karnataka</t>
-  </si>
-  <si>
-    <t>Chennai Central, Chennai</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Trip</t>
-  </si>
-  <si>
-    <t>Cab from the Airport</t>
-  </si>
-  <si>
-    <t>KEB Colony</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>cnm</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
-    <t>madhesh</t>
-  </si>
-  <si>
-    <t>mindtree</t>
-  </si>
-  <si>
-    <t>madheshmaddy55@gmail.com</t>
-  </si>
-  <si>
-    <t>tp</t>
-  </si>
-  <si>
-    <t>tiruvalllur</t>
-  </si>
-  <si>
-    <t>lc</t>
-  </si>
-  <si>
-    <t>tiruvallur</t>
+    <t>Test@12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,10 +77,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -458,134 +393,95 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8760956783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A70AD3F9-B817-41B5-8C62-6006B222BA2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C4913E19633C4488084865B5E80F695" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87fbb1ebceddc42f1a5a7d66b9f04e75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a16323ac-6004-4652-9b47-f8fbbcbcb755" xmlns:ns4="670bef40-1110-41e1-89cf-e9a09d0abced" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1665673215442741f8e1b7f75eab3056" ns3:_="" ns4:_="">
     <xsd:import namespace="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
@@ -782,22 +678,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE6F297-1033-4604-A604-4626C88BE0D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -816,7 +711,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDB33C6-DF3D-47F7-98AB-7648801EB11E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -831,12 +726,4 @@
     <ds:schemaRef ds:uri="670bef40-1110-41e1-89cf-e9a09d0abced"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>